--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H2">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I2">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J2">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N2">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O2">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P2">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q2">
-        <v>5.518584038959109</v>
+        <v>2.607985603731556</v>
       </c>
       <c r="R2">
-        <v>49.66725635063199</v>
+        <v>23.471870433584</v>
       </c>
       <c r="S2">
-        <v>0.06005168085275716</v>
+        <v>0.0223024317758868</v>
       </c>
       <c r="T2">
-        <v>0.06488875399345378</v>
+        <v>0.02275915983270315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H3">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I3">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J3">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P3">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q3">
-        <v>8.498056248044888</v>
+        <v>3.660303819150445</v>
       </c>
       <c r="R3">
-        <v>76.48250623240399</v>
+        <v>32.942734372354</v>
       </c>
       <c r="S3">
-        <v>0.09247346023430773</v>
+        <v>0.03130142899900125</v>
       </c>
       <c r="T3">
-        <v>0.09992205924727122</v>
+        <v>0.03194244613049388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H4">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I4">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J4">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N4">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O4">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P4">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q4">
-        <v>6.953847523015999</v>
+        <v>4.569154553224221</v>
       </c>
       <c r="R4">
-        <v>62.58462770714399</v>
+        <v>41.12239097901799</v>
       </c>
       <c r="S4">
-        <v>0.0756698147935891</v>
+        <v>0.03907355069405314</v>
       </c>
       <c r="T4">
-        <v>0.08176490528068163</v>
+        <v>0.0398737319057139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H5">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I5">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J5">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N5">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O5">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P5">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q5">
-        <v>4.280115466381332</v>
+        <v>0.9022974547370002</v>
       </c>
       <c r="R5">
-        <v>25.68069279828799</v>
+        <v>5.413784728422001</v>
       </c>
       <c r="S5">
-        <v>0.04657501384151452</v>
+        <v>0.007716080716486805</v>
       </c>
       <c r="T5">
-        <v>0.0335510410642678</v>
+        <v>0.005249398094738457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H6">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I6">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J6">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N6">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O6">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P6">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q6">
-        <v>8.989989561304441</v>
+        <v>3.247683202934445</v>
       </c>
       <c r="R6">
-        <v>80.90990605173997</v>
+        <v>29.22914882641</v>
       </c>
       <c r="S6">
-        <v>0.09782654032154584</v>
+        <v>0.02777286537145872</v>
       </c>
       <c r="T6">
-        <v>0.1057063219349342</v>
+        <v>0.02834162159323733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.0837</v>
       </c>
       <c r="I7">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J7">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N7">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O7">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P7">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q7">
-        <v>0.9396191201999998</v>
+        <v>1.0309363224</v>
       </c>
       <c r="R7">
-        <v>8.456572081799999</v>
+        <v>9.278426901599998</v>
       </c>
       <c r="S7">
-        <v>0.01022467124375651</v>
+        <v>0.008816147973635929</v>
       </c>
       <c r="T7">
-        <v>0.01104825323086015</v>
+        <v>0.008996692506764273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.0837</v>
       </c>
       <c r="I8">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J8">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P8">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q8">
         <v>1.4469175569</v>
@@ -948,10 +948,10 @@
         <v>13.0222580121</v>
       </c>
       <c r="S8">
-        <v>0.01574495028684907</v>
+        <v>0.01237345024141346</v>
       </c>
       <c r="T8">
-        <v>0.01701318250037959</v>
+        <v>0.01262684421843192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.0837</v>
       </c>
       <c r="I9">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J9">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N9">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O9">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P9">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q9">
-        <v>1.1839935834</v>
+        <v>1.806186117299999</v>
       </c>
       <c r="R9">
-        <v>10.6559422506</v>
+        <v>16.2556750557</v>
       </c>
       <c r="S9">
-        <v>0.01288388548586094</v>
+        <v>0.01544576879488919</v>
       </c>
       <c r="T9">
-        <v>0.01392166320575981</v>
+        <v>0.01576208030919463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.0837</v>
       </c>
       <c r="I10">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J10">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N10">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O10">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P10">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q10">
-        <v>0.7287518501999999</v>
+        <v>0.35667805005</v>
       </c>
       <c r="R10">
-        <v>4.3725111012</v>
+        <v>2.1400683003</v>
       </c>
       <c r="S10">
-        <v>0.007930072862915218</v>
+        <v>0.003050165562959626</v>
       </c>
       <c r="T10">
-        <v>0.005712552253267401</v>
+        <v>0.002075086288382854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.0837</v>
       </c>
       <c r="I11">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J11">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N11">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O11">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P11">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q11">
-        <v>1.530676351499999</v>
+        <v>1.2838086885</v>
       </c>
       <c r="R11">
-        <v>13.7760871635</v>
+        <v>11.5542781965</v>
       </c>
       <c r="S11">
-        <v>0.01665638995441994</v>
+        <v>0.01097860956271946</v>
       </c>
       <c r="T11">
-        <v>0.01799803727095453</v>
+        <v>0.01120343881284401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H12">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I12">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J12">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N12">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O12">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P12">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q12">
-        <v>6.82859495428311</v>
+        <v>4.751507912584</v>
       </c>
       <c r="R12">
-        <v>61.45735458854799</v>
+        <v>42.763571213256</v>
       </c>
       <c r="S12">
-        <v>0.07430685153518159</v>
+        <v>0.04063296242945773</v>
       </c>
       <c r="T12">
-        <v>0.08029215736886591</v>
+        <v>0.04146507859327281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H13">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I13">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J13">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P13">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q13">
-        <v>10.51533937092289</v>
+        <v>6.668734111979001</v>
       </c>
       <c r="R13">
-        <v>94.63805433830601</v>
+        <v>60.01860700781101</v>
       </c>
       <c r="S13">
-        <v>0.1144249683439083</v>
+        <v>0.05702830082771025</v>
       </c>
       <c r="T13">
-        <v>0.1236417285268327</v>
+        <v>0.05819617459512336</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H14">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I14">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J14">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N14">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O14">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P14">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q14">
-        <v>8.604563738324</v>
+        <v>8.324575865142998</v>
       </c>
       <c r="R14">
-        <v>77.441073644916</v>
+        <v>74.92118278628699</v>
       </c>
       <c r="S14">
-        <v>0.0936324448161346</v>
+        <v>0.07118838579089627</v>
       </c>
       <c r="T14">
-        <v>0.10117439830497</v>
+        <v>0.0726462417519365</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H15">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I15">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J15">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N15">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O15">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P15">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q15">
-        <v>5.296136594305333</v>
+        <v>1.6439022859455</v>
       </c>
       <c r="R15">
-        <v>31.776819565832</v>
+        <v>9.863413715673001</v>
       </c>
       <c r="S15">
-        <v>0.05763107026523052</v>
+        <v>0.01405798349732672</v>
       </c>
       <c r="T15">
-        <v>0.04151544456059739</v>
+        <v>0.009563916513866053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H16">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I16">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J16">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N16">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O16">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P16">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q16">
-        <v>11.12404865523444</v>
+        <v>5.916977614535001</v>
       </c>
       <c r="R16">
-        <v>100.11643789711</v>
+        <v>53.25279853081501</v>
       </c>
       <c r="S16">
-        <v>0.1210487717354178</v>
+        <v>0.05059958512761768</v>
       </c>
       <c r="T16">
-        <v>0.1307990693817296</v>
+        <v>0.05163580621880997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H17">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I17">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J17">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N17">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O17">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P17">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q17">
-        <v>1.524355212475</v>
+        <v>11.95801146401866</v>
       </c>
       <c r="R17">
-        <v>9.146131274849999</v>
+        <v>107.622103176168</v>
       </c>
       <c r="S17">
-        <v>0.01658760509571789</v>
+        <v>0.1022600487019405</v>
       </c>
       <c r="T17">
-        <v>0.01194914126312563</v>
+        <v>0.1043542164502342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H18">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I18">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J18">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P18">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q18">
-        <v>2.3473514666375</v>
+        <v>16.78305086062034</v>
       </c>
       <c r="R18">
-        <v>14.084108799825</v>
+        <v>151.047457745583</v>
       </c>
       <c r="S18">
-        <v>0.02554321908095003</v>
+        <v>0.1435218224650717</v>
       </c>
       <c r="T18">
-        <v>0.01840045813437112</v>
+        <v>0.1464609837073936</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H19">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I19">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J19">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N19">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O19">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P19">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q19">
-        <v>1.920806794575</v>
+        <v>20.95026999004566</v>
       </c>
       <c r="R19">
-        <v>11.52484076745</v>
+        <v>188.552429910411</v>
       </c>
       <c r="S19">
-        <v>0.02090167981375559</v>
+        <v>0.1791581849496651</v>
       </c>
       <c r="T19">
-        <v>0.01505685258902517</v>
+        <v>0.1828271377570121</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H20">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I20">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J20">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N20">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O20">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P20">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q20">
-        <v>1.182262746225</v>
+        <v>4.137171344911501</v>
       </c>
       <c r="R20">
-        <v>4.729050984899999</v>
+        <v>24.823028069469</v>
       </c>
       <c r="S20">
-        <v>0.0128650510020681</v>
+        <v>0.03537940605692851</v>
       </c>
       <c r="T20">
-        <v>0.006178360725532037</v>
+        <v>0.02406929030063061</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H21">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I21">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J21">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N21">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O21">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P21">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q21">
-        <v>2.483234349812499</v>
+        <v>14.89112244968833</v>
       </c>
       <c r="R21">
-        <v>14.899406098875</v>
+        <v>134.020102047195</v>
       </c>
       <c r="S21">
-        <v>0.02702185843411944</v>
+        <v>0.1273428204608812</v>
       </c>
       <c r="T21">
-        <v>0.01946561916312018</v>
+        <v>0.1299506544192164</v>
       </c>
     </row>
   </sheetData>
